--- a/Code/Results/Cases/Case_1_228/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_228/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.26902541992078</v>
+        <v>0.1425304360311941</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.005790763808359856</v>
+        <v>0.00136281687266937</v>
       </c>
       <c r="E2">
-        <v>1.567431669290585</v>
+        <v>0.4336984297763706</v>
       </c>
       <c r="F2">
-        <v>1.788824380448091</v>
+        <v>0.7160575709075232</v>
       </c>
       <c r="G2">
-        <v>0.0007158969819684221</v>
+        <v>0.002324725457951165</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>4.288064236591595</v>
+        <v>1.995241137946778</v>
       </c>
       <c r="O2">
-        <v>5.977551973917684</v>
+        <v>2.355210718842727</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.235677311870532</v>
+        <v>0.1329091933101978</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.004810053280078108</v>
+        <v>0.001187382742090293</v>
       </c>
       <c r="E3">
-        <v>1.336160509687204</v>
+        <v>0.3778594790115903</v>
       </c>
       <c r="F3">
-        <v>1.540579415516149</v>
+        <v>0.6567163053088905</v>
       </c>
       <c r="G3">
-        <v>0.0007235385202459787</v>
+        <v>0.002329461130050568</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.836929003758627</v>
+        <v>1.846526605564804</v>
       </c>
       <c r="O3">
-        <v>5.144303722186692</v>
+        <v>2.156718067768907</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2152931864902854</v>
+        <v>0.1270661492628875</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.004246805412869037</v>
+        <v>0.001080080274057593</v>
       </c>
       <c r="E4">
-        <v>1.19836875584835</v>
+        <v>0.3437100912600357</v>
       </c>
       <c r="F4">
-        <v>1.391567920974296</v>
+        <v>0.6207120828670867</v>
       </c>
       <c r="G4">
-        <v>0.0007283324737500999</v>
+        <v>0.002332519531335734</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.56009691549059</v>
+        <v>1.755520437593759</v>
       </c>
       <c r="O4">
-        <v>4.644473965290103</v>
+        <v>2.036265997455075</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2070077212374599</v>
+        <v>0.1247015078381395</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.004025310140479021</v>
+        <v>0.001036432189167158</v>
       </c>
       <c r="E5">
-        <v>1.143099556680454</v>
+        <v>0.329825076174572</v>
       </c>
       <c r="F5">
-        <v>1.331578396996946</v>
+        <v>0.6061468742205847</v>
       </c>
       <c r="G5">
-        <v>0.000730313868940828</v>
+        <v>0.002333803886885216</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.447332324296866</v>
+        <v>1.718516884911963</v>
       </c>
       <c r="O5">
-        <v>4.443320970959178</v>
+        <v>1.987532592803802</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2056331561246481</v>
+        <v>0.1243098614095572</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.003988969621664396</v>
+        <v>0.001029188458627317</v>
       </c>
       <c r="E6">
-        <v>1.133970667797598</v>
+        <v>0.3275212721868144</v>
       </c>
       <c r="F6">
-        <v>1.321658118355685</v>
+        <v>0.6037347334826251</v>
       </c>
       <c r="G6">
-        <v>0.0007306446175805448</v>
+        <v>0.002334019454337199</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.428610827881812</v>
+        <v>1.712377599108464</v>
       </c>
       <c r="O6">
-        <v>4.410060780376682</v>
+        <v>1.979461519004303</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2151813622178196</v>
+        <v>0.1270341919673399</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.004243787861112125</v>
+        <v>0.001079491335964633</v>
       </c>
       <c r="E7">
-        <v>1.197620022311426</v>
+        <v>0.3435227109891912</v>
       </c>
       <c r="F7">
-        <v>1.390756064626686</v>
+        <v>0.6205152211821883</v>
       </c>
       <c r="G7">
-        <v>0.0007283590801612075</v>
+        <v>0.002332536698358234</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.55857593667119</v>
+        <v>1.755021054648495</v>
       </c>
       <c r="O7">
-        <v>4.641751433936349</v>
+        <v>2.035607345351195</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2575068091881008</v>
+        <v>0.1391997998654944</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.005443401231021383</v>
+        <v>0.001302225393729373</v>
       </c>
       <c r="E8">
-        <v>1.486702222600158</v>
+        <v>0.4144150822294819</v>
       </c>
       <c r="F8">
-        <v>1.702442448580072</v>
+        <v>0.6955060775010651</v>
       </c>
       <c r="G8">
-        <v>0.0007185119886447069</v>
+        <v>0.002326327130626193</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>4.132480705843363</v>
+        <v>1.943904251618477</v>
       </c>
       <c r="O8">
-        <v>5.687526064025633</v>
+        <v>2.286471316272696</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3413255086070137</v>
+        <v>0.1635584291339143</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008199630958756643</v>
+        <v>0.001743495443395915</v>
       </c>
       <c r="E9">
-        <v>2.096339606710984</v>
+        <v>0.5546583365363915</v>
       </c>
       <c r="F9">
-        <v>2.347128541868855</v>
+        <v>0.8460728912957052</v>
       </c>
       <c r="G9">
-        <v>0.0006998995819415466</v>
+        <v>0.002315339238254839</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>5.25911396555432</v>
+        <v>2.316504389646809</v>
       </c>
       <c r="O9">
-        <v>7.85416229861795</v>
+        <v>2.79001036887513</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4035430215422338</v>
+        <v>0.1817500012197257</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01063539081228981</v>
+        <v>0.002072145766488731</v>
       </c>
       <c r="E10">
-        <v>2.586060833366673</v>
+        <v>0.658652049917535</v>
       </c>
       <c r="F10">
-        <v>2.851605898883435</v>
+        <v>0.9589651656520459</v>
       </c>
       <c r="G10">
-        <v>0.0006864679269870018</v>
+        <v>0.002307982165642218</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>6.087573303855777</v>
+        <v>2.591327722520418</v>
       </c>
       <c r="O10">
-        <v>9.553113749089505</v>
+        <v>3.167490004210322</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4320172635534192</v>
+        <v>0.1900877858899008</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01188174520338237</v>
+        <v>0.002223006803760086</v>
       </c>
       <c r="E11">
-        <v>2.822475958476986</v>
+        <v>0.7062161564137739</v>
       </c>
       <c r="F11">
-        <v>3.090660193508597</v>
+        <v>1.010845266279489</v>
       </c>
       <c r="G11">
-        <v>0.0006803599163876365</v>
+        <v>0.002304788697644411</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>6.46463631905084</v>
+        <v>2.716530669508643</v>
       </c>
       <c r="O11">
-        <v>10.35932114213153</v>
+        <v>3.340953389518518</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4428269586280464</v>
+        <v>0.1932538308938092</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01237899073032622</v>
+        <v>0.002280360919026947</v>
       </c>
       <c r="E12">
-        <v>2.914448926120798</v>
+        <v>0.7242680764979781</v>
       </c>
       <c r="F12">
-        <v>3.182852286963396</v>
+        <v>1.03056856590527</v>
       </c>
       <c r="G12">
-        <v>0.0006780420884715859</v>
+        <v>0.00230360130780261</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>6.607448666631797</v>
+        <v>2.763963193734583</v>
       </c>
       <c r="O12">
-        <v>10.67043865151464</v>
+        <v>3.406898250946483</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4404976502400757</v>
+        <v>0.1925715833279469</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01227067534360415</v>
+        <v>0.002267998111934233</v>
       </c>
       <c r="E13">
-        <v>2.89452307201671</v>
+        <v>0.720378418342051</v>
       </c>
       <c r="F13">
-        <v>3.162917655983051</v>
+        <v>1.026317325067765</v>
       </c>
       <c r="G13">
-        <v>0.0006785415835265581</v>
+        <v>0.00230385606152078</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>6.576690288353802</v>
+        <v>2.753746911385861</v>
       </c>
       <c r="O13">
-        <v>10.60315633985687</v>
+        <v>3.392684256368284</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4329060254517003</v>
+        <v>0.190348085298524</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01192211160192969</v>
+        <v>0.00222772064371668</v>
       </c>
       <c r="E14">
-        <v>2.82999038538928</v>
+        <v>0.7077004683360144</v>
       </c>
       <c r="F14">
-        <v>3.098209602540265</v>
+        <v>1.012466350817789</v>
       </c>
       <c r="G14">
-        <v>0.0006801693578423061</v>
+        <v>0.002304690571907265</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>6.476385042944287</v>
+        <v>2.720432585385993</v>
       </c>
       <c r="O14">
-        <v>10.38479363018217</v>
+        <v>3.346373501059304</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4282595438104977</v>
+        <v>0.1889872547792919</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01171208091435716</v>
+        <v>0.002203079946879072</v>
       </c>
       <c r="E15">
-        <v>2.790797357017965</v>
+        <v>0.6999402271471666</v>
       </c>
       <c r="F15">
-        <v>3.058800812428132</v>
+        <v>1.003992371776604</v>
       </c>
       <c r="G15">
-        <v>0.0006811656134803101</v>
+        <v>0.002305204582768017</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>6.414948655392948</v>
+        <v>2.700029152110062</v>
       </c>
       <c r="O15">
-        <v>10.25183258971805</v>
+        <v>3.318040639829917</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4016858187134176</v>
+        <v>0.1812063398625838</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01055715331135865</v>
+        <v>0.002062316590961899</v>
       </c>
       <c r="E16">
-        <v>2.57092413298578</v>
+        <v>0.655549089093725</v>
       </c>
       <c r="F16">
-        <v>2.83619934893477</v>
+        <v>0.9555854069586189</v>
       </c>
       <c r="G16">
-        <v>0.0006868667236993309</v>
+        <v>0.002308193939223566</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>6.06293512783958</v>
+        <v>2.583148644061055</v>
       </c>
       <c r="O16">
-        <v>9.501180815391081</v>
+        <v>3.15618949106215</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3854292867134319</v>
+        <v>0.1764487851811651</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.009887510818481715</v>
+        <v>0.001976332213386556</v>
       </c>
       <c r="E17">
-        <v>2.439845517651122</v>
+        <v>0.6283848123191405</v>
       </c>
       <c r="F17">
-        <v>2.702281680383749</v>
+        <v>0.9260251098173171</v>
       </c>
       <c r="G17">
-        <v>0.000690361341654847</v>
+        <v>0.002310066979291825</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>5.847034662043086</v>
+        <v>2.511489453097226</v>
       </c>
       <c r="O17">
-        <v>9.049894410862862</v>
+        <v>3.057351167739682</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3760949153854085</v>
+        <v>0.1737182494248515</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.00951498039731824</v>
+        <v>0.001927002019733948</v>
       </c>
       <c r="E18">
-        <v>2.365701617315594</v>
+        <v>0.6127846016899383</v>
       </c>
       <c r="F18">
-        <v>2.626135773823904</v>
+        <v>0.9090720897889923</v>
       </c>
       <c r="G18">
-        <v>0.0006923719132447215</v>
+        <v>0.00231115873986465</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>5.722872568807361</v>
+        <v>2.470290675909951</v>
       </c>
       <c r="O18">
-        <v>8.793393365344173</v>
+        <v>3.000665896692624</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.372937123745686</v>
+        <v>0.1727947553757332</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.009390873476300854</v>
+        <v>0.001910320321501402</v>
       </c>
       <c r="E19">
-        <v>2.34079917854109</v>
+        <v>0.6075066487272522</v>
       </c>
       <c r="F19">
-        <v>2.600497178597323</v>
+        <v>0.9033404933890949</v>
       </c>
       <c r="G19">
-        <v>0.0006930528959440128</v>
+        <v>0.002311530874994851</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>5.680836575609476</v>
+        <v>2.456344689235948</v>
       </c>
       <c r="O19">
-        <v>8.70704497499878</v>
+        <v>2.981501180670932</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3871581531678743</v>
+        <v>0.1769546279144265</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.009957453279048067</v>
+        <v>0.001985472159233836</v>
       </c>
       <c r="E20">
-        <v>2.453666606034687</v>
+        <v>0.6312739907922804</v>
       </c>
       <c r="F20">
-        <v>2.716444424735158</v>
+        <v>0.9291667394193155</v>
       </c>
       <c r="G20">
-        <v>0.000689989309964782</v>
+        <v>0.002309866097720437</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>5.870015766701897</v>
+        <v>2.519115905984052</v>
       </c>
       <c r="O20">
-        <v>9.09761035659443</v>
+        <v>3.067855660969485</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4351351131959262</v>
+        <v>0.1910009463252038</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01202375752403384</v>
+        <v>0.002239544716820419</v>
       </c>
       <c r="E21">
-        <v>2.848874331676157</v>
+        <v>0.7114231643078455</v>
       </c>
       <c r="F21">
-        <v>3.117168067285291</v>
+        <v>1.016532600446681</v>
       </c>
       <c r="G21">
-        <v>0.0006796914192125105</v>
+        <v>0.002304444862530205</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>6.505846402053805</v>
+        <v>2.730217288371648</v>
       </c>
       <c r="O21">
-        <v>10.44876478360027</v>
+        <v>3.359969033151685</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4666501368061517</v>
+        <v>0.2002316580432932</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01352510470995227</v>
+        <v>0.002406930069309254</v>
       </c>
       <c r="E22">
-        <v>3.12174648462593</v>
+        <v>0.7640425772889614</v>
       </c>
       <c r="F22">
-        <v>3.388961998781213</v>
+        <v>1.074083505283141</v>
       </c>
       <c r="G22">
-        <v>0.0006729296473793775</v>
+        <v>0.002301029401395692</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>6.921554627153967</v>
+        <v>2.868303394937072</v>
       </c>
       <c r="O22">
-        <v>11.36640331357137</v>
+        <v>3.552389396738079</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4498145419793076</v>
+        <v>0.195300506148314</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01270784654407109</v>
+        <v>0.00231746072000405</v>
       </c>
       <c r="E23">
-        <v>2.974583373186718</v>
+        <v>0.7359357237643849</v>
       </c>
       <c r="F23">
-        <v>3.242882952692611</v>
+        <v>1.043325465387227</v>
       </c>
       <c r="G23">
-        <v>0.0006765434037575412</v>
+        <v>0.002302840664474282</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>6.699669140477795</v>
+        <v>2.794595190493112</v>
       </c>
       <c r="O23">
-        <v>10.8730831447894</v>
+        <v>3.449550766766095</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3863764963097509</v>
+        <v>0.1767259219242163</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.009925793883118317</v>
+        <v>0.001981339670157567</v>
       </c>
       <c r="E24">
-        <v>2.447414342894518</v>
+        <v>0.6299677408469222</v>
       </c>
       <c r="F24">
-        <v>2.710038836878795</v>
+        <v>0.927746279284861</v>
       </c>
       <c r="G24">
-        <v>0.0006901575004876097</v>
+        <v>0.002309956869657329</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>5.859626127686454</v>
+        <v>2.51566798917645</v>
       </c>
       <c r="O24">
-        <v>9.076028865477895</v>
+        <v>3.06310614965065</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3185489263901644</v>
+        <v>0.1569161479393699</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.007395808202643295</v>
+        <v>0.00162346534227531</v>
       </c>
       <c r="E25">
-        <v>1.925385879019359</v>
+        <v>0.5165662124021679</v>
       </c>
       <c r="F25">
-        <v>2.168159383477587</v>
+        <v>0.804951376280016</v>
       </c>
       <c r="G25">
-        <v>0.0007048771891824946</v>
+        <v>0.002318185404700003</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4.954204993366886</v>
+        <v>2.215498394811902</v>
       </c>
       <c r="O25">
-        <v>7.252194421940487</v>
+        <v>2.652501122830984</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_228/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_228/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1425304360311941</v>
+        <v>0.26902541992078</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.00136281687266937</v>
+        <v>0.005790763808356303</v>
       </c>
       <c r="E2">
-        <v>0.4336984297763706</v>
+        <v>1.567431669290599</v>
       </c>
       <c r="F2">
-        <v>0.7160575709075232</v>
+        <v>1.788824380448091</v>
       </c>
       <c r="G2">
-        <v>0.002324725457951165</v>
+        <v>0.0007158969820412124</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.995241137946778</v>
+        <v>4.288064236591453</v>
       </c>
       <c r="O2">
-        <v>2.355210718842727</v>
+        <v>5.977551973917741</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329091933101978</v>
+        <v>0.2356773118709157</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.001187382742090293</v>
+        <v>0.004810053280085214</v>
       </c>
       <c r="E3">
-        <v>0.3778594790115903</v>
+        <v>1.336160509687247</v>
       </c>
       <c r="F3">
-        <v>0.6567163053088905</v>
+        <v>1.540579415516163</v>
       </c>
       <c r="G3">
-        <v>0.002329461130050568</v>
+        <v>0.000723538520274197</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.846526605564804</v>
+        <v>3.836929003758598</v>
       </c>
       <c r="O3">
-        <v>2.156718067768907</v>
+        <v>5.144303722186692</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1270661492628875</v>
+        <v>0.2152931864902854</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.001080080274057593</v>
+        <v>0.004246805412787324</v>
       </c>
       <c r="E4">
-        <v>0.3437100912600357</v>
+        <v>1.19836875584835</v>
       </c>
       <c r="F4">
-        <v>0.6207120828670867</v>
+        <v>1.39156792097431</v>
       </c>
       <c r="G4">
-        <v>0.002332519531335734</v>
+        <v>0.000728332473791079</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.755520437593759</v>
+        <v>3.56009691549059</v>
       </c>
       <c r="O4">
-        <v>2.036265997455075</v>
+        <v>4.64447396529016</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1247015078381395</v>
+        <v>0.2070077212374883</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.001036432189167158</v>
+        <v>0.004025310140480798</v>
       </c>
       <c r="E5">
-        <v>0.329825076174572</v>
+        <v>1.14309955668044</v>
       </c>
       <c r="F5">
-        <v>0.6061468742205847</v>
+        <v>1.33157839699696</v>
       </c>
       <c r="G5">
-        <v>0.002333803886885216</v>
+        <v>0.0007303138689011546</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.718516884911963</v>
+        <v>3.447332324296866</v>
       </c>
       <c r="O5">
-        <v>1.987532592803802</v>
+        <v>4.443320970959121</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1243098614095572</v>
+        <v>0.2056331561246623</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.001029188458627317</v>
+        <v>0.003988969621548932</v>
       </c>
       <c r="E6">
-        <v>0.3275212721868144</v>
+        <v>1.133970667797598</v>
       </c>
       <c r="F6">
-        <v>0.6037347334826251</v>
+        <v>1.3216581183557</v>
       </c>
       <c r="G6">
-        <v>0.002334019454337199</v>
+        <v>0.0007306446175804783</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.712377599108464</v>
+        <v>3.428610827881698</v>
       </c>
       <c r="O6">
-        <v>1.979461519004303</v>
+        <v>4.410060780376682</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1270341919673399</v>
+        <v>0.2151813622174217</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.001079491335964633</v>
+        <v>0.004243787861199166</v>
       </c>
       <c r="E7">
-        <v>0.3435227109891912</v>
+        <v>1.19762002231144</v>
       </c>
       <c r="F7">
-        <v>0.6205152211821883</v>
+        <v>1.390756064626686</v>
       </c>
       <c r="G7">
-        <v>0.002332536698358234</v>
+        <v>0.0007283590801211284</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.755021054648495</v>
+        <v>3.558575936671076</v>
       </c>
       <c r="O7">
-        <v>2.035607345351195</v>
+        <v>4.641751433936349</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391997998654944</v>
+        <v>0.2575068091882997</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.001302225393729373</v>
+        <v>0.005443401231106648</v>
       </c>
       <c r="E8">
-        <v>0.4144150822294819</v>
+        <v>1.486702222600101</v>
       </c>
       <c r="F8">
-        <v>0.6955060775010651</v>
+        <v>1.702442448580101</v>
       </c>
       <c r="G8">
-        <v>0.002326327130626193</v>
+        <v>0.0007185119885717572</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.943904251618477</v>
+        <v>4.132480705843335</v>
       </c>
       <c r="O8">
-        <v>2.286471316272696</v>
+        <v>5.687526064025633</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1635584291339143</v>
+        <v>0.3413255086065732</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.001743495443395915</v>
+        <v>0.008199630958650062</v>
       </c>
       <c r="E9">
-        <v>0.5546583365363915</v>
+        <v>2.096339606710956</v>
       </c>
       <c r="F9">
-        <v>0.8460728912957052</v>
+        <v>2.347128541868827</v>
       </c>
       <c r="G9">
-        <v>0.002315339238254839</v>
+        <v>0.0006998995818340164</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.316504389646809</v>
+        <v>5.259113965554377</v>
       </c>
       <c r="O9">
-        <v>2.79001036887513</v>
+        <v>7.854162298617837</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1817500012197257</v>
+        <v>0.403543021541779</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.002072145766488731</v>
+        <v>0.01063539081218323</v>
       </c>
       <c r="E10">
-        <v>0.658652049917535</v>
+        <v>2.586060833366659</v>
       </c>
       <c r="F10">
-        <v>0.9589651656520459</v>
+        <v>2.851605898883406</v>
       </c>
       <c r="G10">
-        <v>0.002307982165642218</v>
+        <v>0.0006864679270406255</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.591327722520418</v>
+        <v>6.087573303855663</v>
       </c>
       <c r="O10">
-        <v>3.167490004210322</v>
+        <v>9.553113749089505</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1900877858899008</v>
+        <v>0.4320172635532629</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.002223006803760086</v>
+        <v>0.01188174520348895</v>
       </c>
       <c r="E11">
-        <v>0.7062161564137739</v>
+        <v>2.822475958477014</v>
       </c>
       <c r="F11">
-        <v>1.010845266279489</v>
+        <v>3.090660193508597</v>
       </c>
       <c r="G11">
-        <v>0.002304788697644411</v>
+        <v>0.0006803599164443492</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.716530669508643</v>
+        <v>6.464636319050896</v>
       </c>
       <c r="O11">
-        <v>3.340953389518518</v>
+        <v>10.35932114213165</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1932538308938092</v>
+        <v>0.4428269586278333</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.002280360919026947</v>
+        <v>0.01237899073032267</v>
       </c>
       <c r="E12">
-        <v>0.7242680764979781</v>
+        <v>2.914448926120798</v>
       </c>
       <c r="F12">
-        <v>1.03056856590527</v>
+        <v>3.182852286963396</v>
       </c>
       <c r="G12">
-        <v>0.00230360130780261</v>
+        <v>0.0006780420885285025</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.763963193734583</v>
+        <v>6.607448666631683</v>
       </c>
       <c r="O12">
-        <v>3.406898250946483</v>
+        <v>10.6704386515147</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1925715833279469</v>
+        <v>0.4404976502400757</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.002267998111934233</v>
+        <v>0.01227067534359705</v>
       </c>
       <c r="E13">
-        <v>0.720378418342051</v>
+        <v>2.89452307201671</v>
       </c>
       <c r="F13">
-        <v>1.026317325067765</v>
+        <v>3.16291765598308</v>
       </c>
       <c r="G13">
-        <v>0.00230385606152078</v>
+        <v>0.0006785415834695837</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.753746911385861</v>
+        <v>6.576690288353916</v>
       </c>
       <c r="O13">
-        <v>3.392684256368284</v>
+        <v>10.60315633985687</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.190348085298524</v>
+        <v>0.4329060254513593</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.00222772064371668</v>
+        <v>0.01192211160203982</v>
       </c>
       <c r="E14">
-        <v>0.7077004683360144</v>
+        <v>2.829990385389266</v>
       </c>
       <c r="F14">
-        <v>1.012466350817789</v>
+        <v>3.098209602540265</v>
       </c>
       <c r="G14">
-        <v>0.002304690571907265</v>
+        <v>0.000680169357895933</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.720432585385993</v>
+        <v>6.47638504294423</v>
       </c>
       <c r="O14">
-        <v>3.346373501059304</v>
+        <v>10.38479363018212</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1889872547792919</v>
+        <v>0.4282595438104693</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.002203079946879072</v>
+        <v>0.01171208091425058</v>
       </c>
       <c r="E15">
-        <v>0.6999402271471666</v>
+        <v>2.790797357017937</v>
       </c>
       <c r="F15">
-        <v>1.003992371776604</v>
+        <v>3.058800812428103</v>
       </c>
       <c r="G15">
-        <v>0.002305204582768017</v>
+        <v>0.0006811656135376502</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.700029152110062</v>
+        <v>6.414948655393005</v>
       </c>
       <c r="O15">
-        <v>3.318040639829917</v>
+        <v>10.25183258971805</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1812063398625838</v>
+        <v>0.4016858187137586</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.002062316590961899</v>
+        <v>0.01055715331146345</v>
       </c>
       <c r="E16">
-        <v>0.655549089093725</v>
+        <v>2.57092413298578</v>
       </c>
       <c r="F16">
-        <v>0.9555854069586189</v>
+        <v>2.83619934893477</v>
       </c>
       <c r="G16">
-        <v>0.002308193939223566</v>
+        <v>0.0006868667237534292</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.583148644061055</v>
+        <v>6.062935127839467</v>
       </c>
       <c r="O16">
-        <v>3.15618949106215</v>
+        <v>9.501180815391137</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1764487851811651</v>
+        <v>0.3854292867137019</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.001976332213386556</v>
+        <v>0.009887510818483491</v>
       </c>
       <c r="E17">
-        <v>0.6283848123191405</v>
+        <v>2.43984551765115</v>
       </c>
       <c r="F17">
-        <v>0.9260251098173171</v>
+        <v>2.702281680383749</v>
       </c>
       <c r="G17">
-        <v>0.002310066979291825</v>
+        <v>0.0006903613416013465</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.511489453097226</v>
+        <v>5.847034662043257</v>
       </c>
       <c r="O17">
-        <v>3.057351167739682</v>
+        <v>9.049894410862862</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1737182494248515</v>
+        <v>0.3760949153856359</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.001927002019733948</v>
+        <v>0.009514980397314687</v>
       </c>
       <c r="E18">
-        <v>0.6127846016899383</v>
+        <v>2.365701617315594</v>
       </c>
       <c r="F18">
-        <v>0.9090720897889923</v>
+        <v>2.626135773823876</v>
       </c>
       <c r="G18">
-        <v>0.00231115873986465</v>
+        <v>0.0006923719131902085</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.470290675909951</v>
+        <v>5.722872568807475</v>
       </c>
       <c r="O18">
-        <v>3.000665896692624</v>
+        <v>8.793393365344173</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1727947553757332</v>
+        <v>0.3729371237455865</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.001910320321501402</v>
+        <v>0.009390873476403883</v>
       </c>
       <c r="E19">
-        <v>0.6075066487272522</v>
+        <v>2.34079917854109</v>
       </c>
       <c r="F19">
-        <v>0.9033404933890949</v>
+        <v>2.600497178597308</v>
       </c>
       <c r="G19">
-        <v>0.002311530874994851</v>
+        <v>0.0006930528958905002</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.456344689235948</v>
+        <v>5.680836575609476</v>
       </c>
       <c r="O19">
-        <v>2.981501180670932</v>
+        <v>8.707044974998837</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1769546279144265</v>
+        <v>0.3871581531678032</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.001985472159233836</v>
+        <v>0.0099574532787301</v>
       </c>
       <c r="E20">
-        <v>0.6312739907922804</v>
+        <v>2.453666606034659</v>
       </c>
       <c r="F20">
-        <v>0.9291667394193155</v>
+        <v>2.71644442473513</v>
       </c>
       <c r="G20">
-        <v>0.002309866097720437</v>
+        <v>0.000689989309912319</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.519115905984052</v>
+        <v>5.870015766702011</v>
       </c>
       <c r="O20">
-        <v>3.067855660969485</v>
+        <v>9.097610356594373</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1910009463252038</v>
+        <v>0.4351351131956847</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.002239544716820419</v>
+        <v>0.01202375752425056</v>
       </c>
       <c r="E21">
-        <v>0.7114231643078455</v>
+        <v>2.848874331676171</v>
       </c>
       <c r="F21">
-        <v>1.016532600446681</v>
+        <v>3.117168067285291</v>
       </c>
       <c r="G21">
-        <v>0.002304444862530205</v>
+        <v>0.0006796914192121364</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.730217288371648</v>
+        <v>6.505846402053805</v>
       </c>
       <c r="O21">
-        <v>3.359969033151685</v>
+        <v>10.44876478360027</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2002316580432932</v>
+        <v>0.4666501368061517</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.002406930069309254</v>
+        <v>0.01352510471006596</v>
       </c>
       <c r="E22">
-        <v>0.7640425772889614</v>
+        <v>3.121746484625959</v>
       </c>
       <c r="F22">
-        <v>1.074083505283141</v>
+        <v>3.388961998781213</v>
       </c>
       <c r="G22">
-        <v>0.002301029401395692</v>
+        <v>0.0006729296473788289</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.868303394937072</v>
+        <v>6.921554627153967</v>
       </c>
       <c r="O22">
-        <v>3.552389396738079</v>
+        <v>11.36640331357137</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.195300506148314</v>
+        <v>0.4498145419797765</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.00231746072000405</v>
+        <v>0.0127078465439574</v>
       </c>
       <c r="E23">
-        <v>0.7359357237643849</v>
+        <v>2.974583373186761</v>
       </c>
       <c r="F23">
-        <v>1.043325465387227</v>
+        <v>3.242882952692611</v>
       </c>
       <c r="G23">
-        <v>0.002302840664474282</v>
+        <v>0.0006765434037532156</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.794595190493112</v>
+        <v>6.699669140477852</v>
       </c>
       <c r="O23">
-        <v>3.449550766766095</v>
+        <v>10.87308314478946</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1767259219242163</v>
+        <v>0.3863764963092677</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.001981339670157567</v>
+        <v>0.009925793883327927</v>
       </c>
       <c r="E24">
-        <v>0.6299677408469222</v>
+        <v>2.447414342894504</v>
       </c>
       <c r="F24">
-        <v>0.927746279284861</v>
+        <v>2.710038836878795</v>
       </c>
       <c r="G24">
-        <v>0.002309956869657329</v>
+        <v>0.0006901575005401294</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.51566798917645</v>
+        <v>5.859626127686568</v>
       </c>
       <c r="O24">
-        <v>3.06310614965065</v>
+        <v>9.076028865477952</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1569161479393699</v>
+        <v>0.3185489263901218</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.00162346534227531</v>
+        <v>0.007395808202632637</v>
       </c>
       <c r="E25">
-        <v>0.5165662124021679</v>
+        <v>1.925385879019359</v>
       </c>
       <c r="F25">
-        <v>0.804951376280016</v>
+        <v>2.168159383477573</v>
       </c>
       <c r="G25">
-        <v>0.002318185404700003</v>
+        <v>0.0007048771891826179</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.215498394811902</v>
+        <v>4.954204993366943</v>
       </c>
       <c r="O25">
-        <v>2.652501122830984</v>
+        <v>7.25219442194043</v>
       </c>
     </row>
   </sheetData>
